--- a/biology/Zoologie/Cysticerque/Cysticerque.xlsx
+++ b/biology/Zoologie/Cysticerque/Cysticerque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cysticerque est une forme larvaire de tænia ressemblant à une vésicule d'environ 10 mm dans laquelle le scolex est invaginé. Le cysticerque est une forme de résistance pour le parasite durant la phase de son cycle dans l'hôte intermédiaire (le bœuf dans le cas de tænia saginata). Cette forme de résistance lui permet de survivre jusqu'à son passage dans l'hôte définitif (l'être humain).
 Le cysticerque est capable de se retrousser (comme une chaussette) pour se fixer dans l'intestin de son hôte définitif.
